--- a/results/optimization_results/standard/standard_results.xlsx
+++ b/results/optimization_results/standard/standard_results.xlsx
@@ -3248,7 +3248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3451,6 +3451,176 @@
       </c>
       <c r="E11" t="n">
         <v>2.07544423237356</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>618</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.520735528548975</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.531805257448976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.399808836498834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>638</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.732758362287524</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.2669342573294951</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.413657253107255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.314246809967107</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.9954857921188076</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.013814415245209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>638</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.764586814443716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.2282684146029029</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.024979348008752</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>632</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.442208878095723</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.454839352009847</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>619</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9680213681111312</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.2285515392587342</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.605718321335174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>631</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.8926126451243425</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>631</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>622</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.060316882861717</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.127002111442926</v>
       </c>
     </row>
   </sheetData>
